--- a/calc.xlsx
+++ b/calc.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Server\data\htdocs\uefa2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Server\data\htdocs\uefa2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -412,10 +412,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S32"/>
+  <dimension ref="A1:S45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1063,20 +1063,32 @@
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C19" s="3">
-        <f ca="1">ROUND(R19*2.75,0)</f>
-        <v>2</v>
-      </c>
-      <c r="D19" s="2">
-        <f ca="1">ROUND(S19*2.75,0)</f>
-        <v>2</v>
+        <f ca="1">RANDBETWEEN(0, 3)</f>
+        <v>1</v>
+      </c>
+      <c r="D19" s="3">
+        <f ca="1">RANDBETWEEN(0, 3)</f>
+        <v>3</v>
+      </c>
+      <c r="E19">
+        <f ca="1">IF(C19=D19,RANDBETWEEN(С19, 3),55)</f>
+        <v>55</v>
+      </c>
+      <c r="F19">
+        <f ca="1">IF(C19=D19,RANDBETWEEN(D19, 3),55)</f>
+        <v>55</v>
+      </c>
+      <c r="H19">
+        <f ca="1">IF(E19=F19,ROUND(RAND()*2.75,0),55)</f>
+        <v>1</v>
       </c>
       <c r="R19">
         <f ca="1">RAND()</f>
-        <v>0.5501359894541753</v>
+        <v>0.47685582619701106</v>
       </c>
       <c r="S19">
         <f ca="1">RAND()</f>
-        <v>0.63529203241029752</v>
+        <v>9.176569964236525E-2</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
@@ -1118,7 +1130,7 @@
       </c>
       <c r="C21" s="2">
         <f t="shared" ref="C21:C30" ca="1" si="12">ROUND(S21*2.65,0)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D21" s="1">
         <f ca="1">IF(B21&gt;C21,1,0)</f>
@@ -1126,43 +1138,43 @@
       </c>
       <c r="E21" s="1">
         <f ca="1">IF(B21=C21,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
         <f ca="1">IF(B21&lt;C21,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21">
         <f ca="1">D21*$D$32+E21*$E$32+F21*$F$32</f>
-        <v>3.3333333333333335</v>
+        <v>1.6666666666666667</v>
       </c>
       <c r="H21" s="1">
         <f ca="1">IF(AND(B21=$C$19,C21=$D$19),G21*2,0)</f>
         <v>0</v>
       </c>
       <c r="I21" s="1">
-        <f ca="1">IF(AND($C$19&lt;&gt;$D$19,H21=0),IF($C$19-$D$19=B21-C21,G21*1.25,0),0)</f>
+        <f t="shared" ref="I21:I30" ca="1" si="13">IF(AND($C$19&lt;&gt;$D$19,H21=0),IF($C$19-$D$19=B21-C21,G21*1.25,0),0)</f>
         <v>0</v>
       </c>
       <c r="J21" s="1">
         <f ca="1">IF(AND(I21=0,IF(AND($C$19&gt;$D$19,B21&gt;C21),AND($C$19=$D$19,B21=C21),AND($C$19&lt;$D$19,B21&lt;C21))),G21,0)</f>
-        <v>0</v>
+        <v>1.6666666666666667</v>
       </c>
       <c r="K21">
-        <f ca="1">IF(AND(H21=0,I21=0),IF(OR(B21=$C$19,C21=$D$19),IF(OR(AND($C$19&gt;$D$19,D21=1),AND($C$19=$D$19,E21=1),AND($C$19&lt;$D$19,F21=1)),G21*1.1,0.5),0),0)</f>
-        <v>0</v>
+        <f t="shared" ref="K21:K30" ca="1" si="14">IF(AND(H21=0,I21=0),IF(OR(B21=$C$19,C21=$D$19),IF(OR(AND($C$19&gt;$D$19,D21=1),AND($C$19=$D$19,E21=1),AND($C$19&lt;$D$19,F21=1)),G21*1.1,0.5),0),0)</f>
+        <v>1.8333333333333335</v>
       </c>
       <c r="M21" t="b">
         <f ca="1">IF(AND($C$19&gt;$D$19,B21&gt;C21),AND($C$19=$D$19,B21=C21),AND($C$19&lt;$D$19,B21&lt;C21))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R21">
         <f ca="1">RAND()</f>
-        <v>0.35015061743095754</v>
+        <v>0.503691979643765</v>
       </c>
       <c r="S21">
         <f ca="1">RAND()</f>
-        <v>0.3853843822185723</v>
+        <v>0.8811129862374194</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
@@ -1174,30 +1186,30 @@
       </c>
       <c r="C22" s="2">
         <f t="shared" ca="1" si="12"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D22" s="1">
-        <f t="shared" ref="D22:D30" ca="1" si="13">IF(B22&gt;C22,1,0)</f>
+        <f t="shared" ref="D22:D30" ca="1" si="15">IF(B22&gt;C22,1,0)</f>
         <v>1</v>
       </c>
       <c r="E22" s="1">
-        <f t="shared" ref="E22:E30" ca="1" si="14">IF(B22=C22,1,0)</f>
+        <f t="shared" ref="E22:E30" ca="1" si="16">IF(B22=C22,1,0)</f>
         <v>0</v>
       </c>
       <c r="F22" s="1">
-        <f t="shared" ref="F22:F30" ca="1" si="15">IF(B22&lt;C22,1,0)</f>
+        <f t="shared" ref="F22:F30" ca="1" si="17">IF(B22&lt;C22,1,0)</f>
         <v>0</v>
       </c>
       <c r="G22">
-        <f t="shared" ref="G22:G30" ca="1" si="16">D22*$D$32+E22*$E$32+F22*$F$32</f>
-        <v>2</v>
+        <f t="shared" ref="G22:G30" ca="1" si="18">D22*$D$32+E22*$E$32+F22*$F$32</f>
+        <v>3.3333333333333335</v>
       </c>
       <c r="H22" s="1">
-        <f t="shared" ref="H22:H30" ca="1" si="17">IF(AND(B22=$C$19,C22=$D$19),G22*2,0)</f>
+        <f t="shared" ref="H22:H30" ca="1" si="19">IF(AND(B22=$C$19,C22=$D$19),G22*2,0)</f>
         <v>0</v>
       </c>
       <c r="I22" s="1">
-        <f ca="1">IF(AND($C$19&lt;&gt;$D$19,H22=0),IF($C$19-$D$19=B22-C22,G22*1.25,0),0)</f>
+        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
       <c r="J22" s="1">
@@ -1205,16 +1217,16 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <f ca="1">IF(AND(H22=0,I22=0),IF(OR(B22=$C$19,C22=$D$19),IF(OR(AND($C$19&gt;$D$19,D22=1),AND($C$19=$D$19,E22=1),AND($C$19&lt;$D$19,F22=1)),G22*1.1,0.5),0),0)</f>
-        <v>0.5</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>0</v>
       </c>
       <c r="R22">
-        <f t="shared" ref="R22:S31" ca="1" si="18">RAND()</f>
-        <v>6.004296262493658E-2</v>
+        <f t="shared" ref="R22:S31" ca="1" si="20">RAND()</f>
+        <v>0.92641750615085772</v>
       </c>
       <c r="S22">
-        <f t="shared" ca="1" si="18"/>
-        <v>0.88118164430313806</v>
+        <f t="shared" ca="1" si="20"/>
+        <v>5.3553585569172779E-2</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
@@ -1227,47 +1239,47 @@
       </c>
       <c r="C23" s="2">
         <f t="shared" ca="1" si="12"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D23" s="1">
+        <f t="shared" ca="1" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="E23" s="1">
+        <f t="shared" ca="1" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="F23" s="1">
+        <f t="shared" ca="1" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <f t="shared" ca="1" si="18"/>
+        <v>10</v>
+      </c>
+      <c r="H23" s="1">
+        <f t="shared" ca="1" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="I23" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="E23" s="1">
+        <v>0</v>
+      </c>
+      <c r="J23" s="1">
+        <f t="shared" ref="J23:J30" ca="1" si="21">IF(AND(I23=0,IF(AND($C$19&gt;$D$19,B23&gt;C23),AND($C$19=$D$19,B23=C23),AND($C$19&lt;$D$19,B23&lt;C23))),G23,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K23">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
-      <c r="F23" s="1">
-        <f t="shared" ca="1" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="G23">
-        <f t="shared" ca="1" si="16"/>
-        <v>2</v>
-      </c>
-      <c r="H23" s="1">
-        <f t="shared" ca="1" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="I23" s="1">
-        <f ca="1">IF(AND($C$19&lt;&gt;$D$19,H23=0),IF($C$19-$D$19=B23-C23,G23*1.25,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="J23" s="1">
-        <f t="shared" ref="J22:J31" ca="1" si="19">IF(AND(I23=0,IF(AND($C$19&gt;$D$19,B23&gt;C23),AND($C$19=$D$19,B23=C23),AND($C$19&lt;$D$19,B23&lt;C23))),G23,0)</f>
-        <v>0</v>
-      </c>
-      <c r="K23">
-        <f ca="1">IF(AND(H23=0,I23=0),IF(OR(B23=$C$19,C23=$D$19),IF(OR(AND($C$19&gt;$D$19,D23=1),AND($C$19=$D$19,E23=1),AND($C$19&lt;$D$19,F23=1)),G23*1.1,0.5),0),0)</f>
-        <v>0.5</v>
-      </c>
       <c r="R23">
-        <f t="shared" ca="1" si="18"/>
-        <v>0.89947396359951926</v>
+        <f t="shared" ca="1" si="20"/>
+        <v>0.84923733942692747</v>
       </c>
       <c r="S23">
-        <f t="shared" ca="1" si="18"/>
-        <v>0.21033215428193153</v>
+        <f t="shared" ca="1" si="20"/>
+        <v>0.74379929820389223</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
@@ -1276,51 +1288,51 @@
       </c>
       <c r="B24" s="3">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C24" s="2">
         <f t="shared" ca="1" si="12"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D24" s="1">
+        <f t="shared" ca="1" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="E24" s="1">
+        <f t="shared" ca="1" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="F24" s="1">
+        <f t="shared" ca="1" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <f t="shared" ca="1" si="18"/>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="H24" s="1">
+        <f t="shared" ca="1" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="I24" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="E24" s="1">
+        <v>2.0833333333333335</v>
+      </c>
+      <c r="J24" s="1">
+        <f t="shared" ca="1" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="K24">
         <f t="shared" ca="1" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="F24" s="1">
-        <f t="shared" ca="1" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="G24">
-        <f t="shared" ca="1" si="16"/>
-        <v>3.3333333333333335</v>
-      </c>
-      <c r="H24" s="1">
-        <f t="shared" ca="1" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="I24" s="1">
-        <f ca="1">IF(AND($C$19&lt;&gt;$D$19,H24=0),IF($C$19-$D$19=B24-C24,G24*1.25,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="J24" s="1">
-        <f t="shared" ca="1" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="K24">
-        <f ca="1">IF(AND(H24=0,I24=0),IF(OR(B24=$C$19,C24=$D$19),IF(OR(AND($C$19&gt;$D$19,D24=1),AND($C$19=$D$19,E24=1),AND($C$19&lt;$D$19,F24=1)),G24*1.1,0.5),0),0)</f>
         <v>0</v>
       </c>
       <c r="R24">
-        <f t="shared" ca="1" si="18"/>
-        <v>0.21301957743800348</v>
+        <f t="shared" ca="1" si="20"/>
+        <v>7.4986295301087913E-2</v>
       </c>
       <c r="S24">
-        <f t="shared" ca="1" si="18"/>
-        <v>0.19747071285552753</v>
+        <f t="shared" ca="1" si="20"/>
+        <v>0.71080668543950687</v>
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
@@ -1329,51 +1341,51 @@
       </c>
       <c r="B25" s="3">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C25" s="2">
         <f t="shared" ca="1" si="12"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D25" s="1">
+        <f t="shared" ca="1" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="E25" s="1">
+        <f t="shared" ca="1" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="F25" s="1">
+        <f t="shared" ca="1" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <f t="shared" ca="1" si="18"/>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="H25" s="1">
+        <f t="shared" ca="1" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="I25" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="E25" s="1">
+        <v>0</v>
+      </c>
+      <c r="J25" s="1">
+        <f t="shared" ca="1" si="21"/>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="K25">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
-      <c r="F25" s="1">
-        <f t="shared" ca="1" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="G25">
-        <f t="shared" ca="1" si="16"/>
-        <v>2</v>
-      </c>
-      <c r="H25" s="1">
-        <f t="shared" ca="1" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="I25" s="1">
-        <f ca="1">IF(AND($C$19&lt;&gt;$D$19,H25=0),IF($C$19-$D$19=B25-C25,G25*1.25,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="J25" s="1">
-        <f t="shared" ca="1" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="K25">
-        <f ca="1">IF(AND(H25=0,I25=0),IF(OR(B25=$C$19,C25=$D$19),IF(OR(AND($C$19&gt;$D$19,D25=1),AND($C$19=$D$19,E25=1),AND($C$19&lt;$D$19,F25=1)),G25*1.1,0.5),0),0)</f>
-        <v>0</v>
-      </c>
       <c r="R25">
-        <f t="shared" ca="1" si="18"/>
-        <v>0.39086374112314681</v>
+        <f t="shared" ca="1" si="20"/>
+        <v>0.17493921255674372</v>
       </c>
       <c r="S25">
-        <f t="shared" ca="1" si="18"/>
-        <v>1.6761129717915102E-2</v>
+        <f t="shared" ca="1" si="20"/>
+        <v>0.44331763298979965</v>
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
@@ -1382,51 +1394,51 @@
       </c>
       <c r="B26" s="3">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C26" s="2">
         <f t="shared" ca="1" si="12"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D26" s="1">
+        <f t="shared" ca="1" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="E26" s="1">
+        <f t="shared" ca="1" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="F26" s="1">
+        <f t="shared" ca="1" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <f t="shared" ca="1" si="18"/>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="H26" s="1">
+        <f t="shared" ca="1" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="I26" s="1">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
-      <c r="E26" s="1">
+      <c r="J26" s="1">
+        <f t="shared" ca="1" si="21"/>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="K26">
         <f t="shared" ca="1" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="F26" s="1">
-        <f t="shared" ca="1" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="G26">
-        <f t="shared" ca="1" si="16"/>
-        <v>5</v>
-      </c>
-      <c r="H26" s="1">
-        <f t="shared" ca="1" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="I26" s="1">
-        <f ca="1">IF(AND($C$19&lt;&gt;$D$19,H26=0),IF($C$19-$D$19=B26-C26,G26*1.25,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="J26" s="1">
-        <f t="shared" ca="1" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="K26">
-        <f ca="1">IF(AND(H26=0,I26=0),IF(OR(B26=$C$19,C26=$D$19),IF(OR(AND($C$19&gt;$D$19,D26=1),AND($C$19=$D$19,E26=1),AND($C$19&lt;$D$19,F26=1)),G26*1.1,0.5),0),0)</f>
-        <v>0.5</v>
+        <v>1.8333333333333335</v>
       </c>
       <c r="R26">
-        <f t="shared" ca="1" si="18"/>
-        <v>0.47730066269982896</v>
+        <f t="shared" ca="1" si="20"/>
+        <v>0.71640485171578228</v>
       </c>
       <c r="S26">
-        <f t="shared" ca="1" si="18"/>
-        <v>0.91289209439802521</v>
+        <f t="shared" ca="1" si="20"/>
+        <v>0.94823432137929653</v>
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
@@ -1435,51 +1447,51 @@
       </c>
       <c r="B27" s="3">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C27" s="2">
         <f t="shared" ca="1" si="12"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D27" s="1">
+        <f t="shared" ca="1" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="E27" s="1">
+        <f t="shared" ca="1" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="F27" s="1">
+        <f t="shared" ca="1" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <f t="shared" ca="1" si="18"/>
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="H27" s="1">
+        <f t="shared" ca="1" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="I27" s="1">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
-      <c r="E27" s="1">
+      <c r="J27" s="1">
+        <f t="shared" ca="1" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="K27">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
-      <c r="F27" s="1">
-        <f t="shared" ca="1" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="G27">
-        <f t="shared" ca="1" si="16"/>
-        <v>5</v>
-      </c>
-      <c r="H27" s="1">
-        <f t="shared" ca="1" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="I27" s="1">
-        <f ca="1">IF(AND($C$19&lt;&gt;$D$19,H27=0),IF($C$19-$D$19=B27-C27,G27*1.25,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="J27" s="1">
-        <f t="shared" ca="1" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="K27">
-        <f ca="1">IF(AND(H27=0,I27=0),IF(OR(B27=$C$19,C27=$D$19),IF(OR(AND($C$19&gt;$D$19,D27=1),AND($C$19=$D$19,E27=1),AND($C$19&lt;$D$19,F27=1)),G27*1.1,0.5),0),0)</f>
-        <v>0.5</v>
-      </c>
       <c r="R27">
-        <f t="shared" ca="1" si="18"/>
-        <v>0.55721567348958101</v>
+        <f t="shared" ca="1" si="20"/>
+        <v>0.77445080888499274</v>
       </c>
       <c r="S27">
-        <f t="shared" ca="1" si="18"/>
-        <v>0.60541877135967648</v>
+        <f t="shared" ca="1" si="20"/>
+        <v>0.46461750189784723</v>
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
@@ -1488,51 +1500,51 @@
       </c>
       <c r="B28" s="3">
         <f t="shared" ca="1" si="11"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C28" s="2">
         <f t="shared" ca="1" si="12"/>
         <v>2</v>
       </c>
       <c r="D28" s="1">
+        <f t="shared" ca="1" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="E28" s="1">
+        <f t="shared" ca="1" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="F28" s="1">
+        <f t="shared" ca="1" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <f t="shared" ca="1" si="18"/>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="H28" s="1">
+        <f t="shared" ca="1" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="I28" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="E28" s="1">
+        <v>0</v>
+      </c>
+      <c r="J28" s="1">
+        <f t="shared" ca="1" si="21"/>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="K28">
         <f t="shared" ca="1" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="F28" s="1">
-        <f t="shared" ca="1" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="G28">
-        <f t="shared" ca="1" si="16"/>
-        <v>2</v>
-      </c>
-      <c r="H28" s="1">
-        <f t="shared" ca="1" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="I28" s="1">
-        <f ca="1">IF(AND($C$19&lt;&gt;$D$19,H28=0),IF($C$19-$D$19=B28-C28,G28*1.25,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="J28" s="1">
-        <f t="shared" ca="1" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="K28">
-        <f ca="1">IF(AND(H28=0,I28=0),IF(OR(B28=$C$19,C28=$D$19),IF(OR(AND($C$19&gt;$D$19,D28=1),AND($C$19=$D$19,E28=1),AND($C$19&lt;$D$19,F28=1)),G28*1.1,0.5),0),0)</f>
-        <v>0.5</v>
+        <v>1.8333333333333335</v>
       </c>
       <c r="R28">
-        <f t="shared" ca="1" si="18"/>
-        <v>0.94516061776510718</v>
+        <f t="shared" ca="1" si="20"/>
+        <v>0.43402518952531677</v>
       </c>
       <c r="S28">
-        <f t="shared" ca="1" si="18"/>
-        <v>0.68235235573813735</v>
+        <f t="shared" ca="1" si="20"/>
+        <v>0.79228783960185178</v>
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
@@ -1541,51 +1553,51 @@
       </c>
       <c r="B29" s="3">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C29" s="2">
         <f t="shared" ca="1" si="12"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D29" s="1">
+        <f t="shared" ca="1" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="E29" s="1">
+        <f t="shared" ca="1" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="F29" s="1">
+        <f t="shared" ca="1" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <f t="shared" ca="1" si="18"/>
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="H29" s="1">
+        <f t="shared" ca="1" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="I29" s="1">
         <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
-      <c r="E29" s="1">
+      <c r="J29" s="1">
+        <f t="shared" ca="1" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="K29">
         <f t="shared" ca="1" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="F29" s="1">
-        <f t="shared" ca="1" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="G29">
-        <f t="shared" ca="1" si="16"/>
-        <v>3.3333333333333335</v>
-      </c>
-      <c r="H29" s="1">
-        <f t="shared" ca="1" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="I29" s="1">
-        <f ca="1">IF(AND($C$19&lt;&gt;$D$19,H29=0),IF($C$19-$D$19=B29-C29,G29*1.25,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="J29" s="1">
-        <f t="shared" ca="1" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="K29">
-        <f ca="1">IF(AND(H29=0,I29=0),IF(OR(B29=$C$19,C29=$D$19),IF(OR(AND($C$19&gt;$D$19,D29=1),AND($C$19=$D$19,E29=1),AND($C$19&lt;$D$19,F29=1)),G29*1.1,0.5),0),0)</f>
         <v>0</v>
       </c>
       <c r="R29">
-        <f t="shared" ca="1" si="18"/>
-        <v>0.49588781738463861</v>
+        <f t="shared" ca="1" si="20"/>
+        <v>0.98985565040326462</v>
       </c>
       <c r="S29">
-        <f t="shared" ca="1" si="18"/>
-        <v>0.31804883849844856</v>
+        <f t="shared" ca="1" si="20"/>
+        <v>2.9513144392542268E-3</v>
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
@@ -1594,88 +1606,369 @@
       </c>
       <c r="B30" s="3">
         <f t="shared" ca="1" si="11"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C30" s="2">
         <f t="shared" ca="1" si="12"/>
         <v>1</v>
       </c>
       <c r="D30" s="1">
+        <f t="shared" ca="1" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="E30" s="1">
+        <f t="shared" ca="1" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="F30" s="1">
+        <f t="shared" ca="1" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <f t="shared" ca="1" si="18"/>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="H30" s="1">
+        <f t="shared" ca="1" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="I30" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="E30" s="1">
+        <v>0</v>
+      </c>
+      <c r="J30" s="1">
+        <f t="shared" ca="1" si="21"/>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="K30">
         <f t="shared" ca="1" si="14"/>
         <v>0</v>
       </c>
-      <c r="F30" s="1">
-        <f t="shared" ca="1" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="G30">
-        <f t="shared" ca="1" si="16"/>
-        <v>2</v>
-      </c>
-      <c r="H30" s="1">
-        <f t="shared" ca="1" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="I30" s="1">
-        <f ca="1">IF(AND($C$19&lt;&gt;$D$19,H30=0),IF($C$19-$D$19=B30-C30,G30*1.25,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="J30" s="1">
-        <f t="shared" ca="1" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="K30">
-        <f ca="1">IF(AND(H30=0,I30=0),IF(OR(B30=$C$19,C30=$D$19),IF(OR(AND($C$19&gt;$D$19,D30=1),AND($C$19=$D$19,E30=1),AND($C$19&lt;$D$19,F30=1)),G30*1.1,0.5),0),0)</f>
-        <v>0</v>
-      </c>
       <c r="R30">
-        <f t="shared" ca="1" si="18"/>
-        <v>0.98835860430979039</v>
+        <f t="shared" ca="1" si="20"/>
+        <v>6.0012674716628522E-2</v>
       </c>
       <c r="S30">
-        <f t="shared" ca="1" si="18"/>
-        <v>0.29745869833297822</v>
+        <f t="shared" ca="1" si="20"/>
+        <v>0.52182264897412933</v>
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="D31" s="1">
         <f ca="1">SUM(D21:D30)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E31" s="1">
         <f ca="1">SUM(E21:E30)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F31" s="1">
         <f ca="1">SUM(F21:F30)</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J31" s="1"/>
       <c r="R31">
-        <f t="shared" ca="1" si="18"/>
-        <v>0.38623877195465262</v>
+        <f t="shared" ca="1" si="20"/>
+        <v>0.35743431659446179</v>
       </c>
       <c r="S31">
-        <f t="shared" ca="1" si="18"/>
-        <v>0.27586815570936196</v>
+        <f t="shared" ca="1" si="20"/>
+        <v>0.28303748804994877</v>
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="D32" s="5">
         <f ca="1">IF(D31&lt;&gt;0,$A$30/D31,0)</f>
-        <v>2</v>
+        <v>3.3333333333333335</v>
       </c>
       <c r="E32" s="5">
-        <f t="shared" ref="E32:F32" ca="1" si="20">IF(E31&lt;&gt;0,$A$30/E31,0)</f>
-        <v>3.3333333333333335</v>
+        <f t="shared" ref="E32:F32" ca="1" si="22">IF(E31&lt;&gt;0,$A$30/E31,0)</f>
+        <v>10</v>
       </c>
       <c r="F32" s="5">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="22"/>
+        <v>1.6666666666666667</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B35">
+        <f ca="1">RANDBETWEEN(0, 3)</f>
+        <v>0</v>
+      </c>
+      <c r="C35" s="2">
+        <f ca="1">RANDBETWEEN(0, 3)</f>
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <f ca="1">IF(B35=C35, RANDBETWEEN(B35, 3),99)</f>
+        <v>0</v>
+      </c>
+      <c r="E35" s="2">
+        <f ca="1">IF(B35=C35, RANDBETWEEN(C35, 3),98)</f>
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <f ca="1">IF(D35=E35, RANDBETWEEN(1, 2),99)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>1</v>
+      </c>
+      <c r="B36">
+        <f t="shared" ref="B36:C45" ca="1" si="23">RANDBETWEEN(0, 3)</f>
+        <v>2</v>
+      </c>
+      <c r="C36" s="2">
+        <f t="shared" ca="1" si="23"/>
+        <v>3</v>
+      </c>
+      <c r="D36">
+        <f t="shared" ref="D36:D45" ca="1" si="24">IF(B36=C36, RANDBETWEEN(B36, 3),99)</f>
+        <v>99</v>
+      </c>
+      <c r="E36" s="2">
+        <f t="shared" ref="E36:E45" ca="1" si="25">IF(B36=C36, RANDBETWEEN(C36, 3),98)</f>
+        <v>98</v>
+      </c>
+      <c r="F36">
+        <f t="shared" ref="F36:F45" ca="1" si="26">IF(D36=E36, RANDBETWEEN(1, 2),99)</f>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <f>A36+1</f>
+        <v>2</v>
+      </c>
+      <c r="B37">
+        <f t="shared" ca="1" si="23"/>
+        <v>2</v>
+      </c>
+      <c r="C37" s="2">
+        <f t="shared" ca="1" si="23"/>
+        <v>2</v>
+      </c>
+      <c r="D37">
+        <f t="shared" ca="1" si="24"/>
+        <v>3</v>
+      </c>
+      <c r="E37" s="2">
+        <f t="shared" ca="1" si="25"/>
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <f t="shared" ca="1" si="26"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <f t="shared" ref="A38:A45" si="27">A37+1</f>
+        <v>3</v>
+      </c>
+      <c r="B38">
+        <f t="shared" ca="1" si="23"/>
+        <v>2</v>
+      </c>
+      <c r="C38" s="2">
+        <f t="shared" ca="1" si="23"/>
+        <v>3</v>
+      </c>
+      <c r="D38">
+        <f t="shared" ca="1" si="24"/>
+        <v>99</v>
+      </c>
+      <c r="E38" s="2">
+        <f t="shared" ca="1" si="25"/>
+        <v>98</v>
+      </c>
+      <c r="F38">
+        <f t="shared" ca="1" si="26"/>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <f t="shared" si="27"/>
+        <v>4</v>
+      </c>
+      <c r="B39">
+        <f t="shared" ca="1" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="C39" s="2">
+        <f t="shared" ca="1" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <f t="shared" ca="1" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="E39" s="2">
+        <f t="shared" ca="1" si="25"/>
+        <v>2</v>
+      </c>
+      <c r="F39">
+        <f t="shared" ca="1" si="26"/>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <f t="shared" si="27"/>
         <v>5</v>
+      </c>
+      <c r="B40">
+        <f t="shared" ca="1" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="C40" s="2">
+        <f t="shared" ca="1" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <f t="shared" ca="1" si="24"/>
+        <v>99</v>
+      </c>
+      <c r="E40" s="2">
+        <f t="shared" ca="1" si="25"/>
+        <v>98</v>
+      </c>
+      <c r="F40">
+        <f t="shared" ca="1" si="26"/>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <f t="shared" si="27"/>
+        <v>6</v>
+      </c>
+      <c r="B41">
+        <f t="shared" ca="1" si="23"/>
+        <v>2</v>
+      </c>
+      <c r="C41" s="2">
+        <f t="shared" ca="1" si="23"/>
+        <v>3</v>
+      </c>
+      <c r="D41">
+        <f t="shared" ca="1" si="24"/>
+        <v>99</v>
+      </c>
+      <c r="E41" s="2">
+        <f t="shared" ca="1" si="25"/>
+        <v>98</v>
+      </c>
+      <c r="F41">
+        <f t="shared" ca="1" si="26"/>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <f t="shared" si="27"/>
+        <v>7</v>
+      </c>
+      <c r="B42">
+        <f t="shared" ca="1" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="C42" s="2">
+        <f t="shared" ca="1" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="D42">
+        <f t="shared" ca="1" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="E42" s="2">
+        <f t="shared" ca="1" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="F42">
+        <f t="shared" ca="1" si="26"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <f t="shared" si="27"/>
+        <v>8</v>
+      </c>
+      <c r="B43">
+        <f t="shared" ca="1" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="C43" s="2">
+        <f t="shared" ca="1" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="D43">
+        <f t="shared" ca="1" si="24"/>
+        <v>99</v>
+      </c>
+      <c r="E43" s="2">
+        <f t="shared" ca="1" si="25"/>
+        <v>98</v>
+      </c>
+      <c r="F43">
+        <f t="shared" ca="1" si="26"/>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <f t="shared" si="27"/>
+        <v>9</v>
+      </c>
+      <c r="B44">
+        <f t="shared" ca="1" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="C44" s="2">
+        <f t="shared" ca="1" si="23"/>
+        <v>3</v>
+      </c>
+      <c r="D44">
+        <f t="shared" ca="1" si="24"/>
+        <v>99</v>
+      </c>
+      <c r="E44" s="2">
+        <f t="shared" ca="1" si="25"/>
+        <v>98</v>
+      </c>
+      <c r="F44">
+        <f t="shared" ca="1" si="26"/>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <f t="shared" si="27"/>
+        <v>10</v>
+      </c>
+      <c r="B45">
+        <f t="shared" ca="1" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="C45" s="2">
+        <f t="shared" ca="1" si="23"/>
+        <v>3</v>
+      </c>
+      <c r="D45">
+        <f t="shared" ca="1" si="24"/>
+        <v>99</v>
+      </c>
+      <c r="E45" s="2">
+        <f t="shared" ca="1" si="25"/>
+        <v>98</v>
+      </c>
+      <c r="F45">
+        <f t="shared" ca="1" si="26"/>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
